--- a/HLR-test case job seeker.xlsx
+++ b/HLR-test case job seeker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="464">
   <si>
     <t>Created HLR of JOB Seeker</t>
   </si>
@@ -922,6 +922,501 @@
   </si>
   <si>
     <t>enter URL path, link,register button,enter full name ,emali address,phone number, invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to photo upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to access photo upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is not  able to photo upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error </t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>user is able to enter the information</t>
+  </si>
+  <si>
+    <t>enter information</t>
+  </si>
+  <si>
+    <t>user eble to enter the information</t>
+  </si>
+  <si>
+    <t>user is unble to enter the information</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>faile</t>
+  </si>
+  <si>
+    <t>your carrer preferences</t>
+  </si>
+  <si>
+    <t>user is able to enter carrer perference  details</t>
+  </si>
+  <si>
+    <t>enter your carrer information</t>
+  </si>
+  <si>
+    <t>mis micth key information</t>
+  </si>
+  <si>
+    <t>user  eble to enter carrer perference  details</t>
+  </si>
+  <si>
+    <t>user eble to enter carrer perference  details</t>
+  </si>
+  <si>
+    <t>user is unble to enter carrer perference  details</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to  access upload resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to access upload resume </t>
+  </si>
+  <si>
+    <t>mis macth your carrer information</t>
+  </si>
+  <si>
+    <t>upload resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to  access upload resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to access upload resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is  not able to access upload resume </t>
+  </si>
+  <si>
+    <t>success fully upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">professional details </t>
+  </si>
+  <si>
+    <t>user is able to enter the professional details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enter professional details </t>
+  </si>
+  <si>
+    <t>user eble to enter the professional details</t>
+  </si>
+  <si>
+    <t>key skills</t>
+  </si>
+  <si>
+    <t>user is able to select the key skills</t>
+  </si>
+  <si>
+    <t>select key skills</t>
+  </si>
+  <si>
+    <t>user eble to select the key skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emloyment details </t>
+  </si>
+  <si>
+    <t>user is able to  access enter the emloyment details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter emloyment details </t>
+  </si>
+  <si>
+    <t>user eble to  access enter the emloyment details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to  access enter the project  details </t>
+  </si>
+  <si>
+    <t>enter project details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to  access enter the project  details </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is  not able to  access enter the project  details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT skills </t>
+  </si>
+  <si>
+    <t>user is able to access enter the IT skills</t>
+  </si>
+  <si>
+    <t>enter IT skills</t>
+  </si>
+  <si>
+    <t>user eble to access enter the IT skills</t>
+  </si>
+  <si>
+    <t>user is not able to access enter the IT skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education </t>
+  </si>
+  <si>
+    <t>H010</t>
+  </si>
+  <si>
+    <t>T010.1</t>
+  </si>
+  <si>
+    <t>user is able to  access enter the education details</t>
+  </si>
+  <si>
+    <t>enter education</t>
+  </si>
+  <si>
+    <t>user eble to  access enter the education details</t>
+  </si>
+  <si>
+    <t>user is not able to  access enter the education details</t>
+  </si>
+  <si>
+    <t>H011</t>
+  </si>
+  <si>
+    <t>personal details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to enter the personal detais </t>
+  </si>
+  <si>
+    <t>T011.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mismacth key enter project details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mismacth key enter IT skills</t>
+  </si>
+  <si>
+    <t>mismacth key enter education</t>
+  </si>
+  <si>
+    <t>enter personal details</t>
+  </si>
+  <si>
+    <t>mismacth key enter personal details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is  not able to enter the personal detais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to enter the personal detais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">save button </t>
+  </si>
+  <si>
+    <t>H012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to access  click save button </t>
+  </si>
+  <si>
+    <t>T012.1</t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t>success fully save</t>
+  </si>
+  <si>
+    <t>as excepted</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to access  click save button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter URL path, link, emali address, password ,login button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to access login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to access login page </t>
+  </si>
+  <si>
+    <t>success fully login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter URL path, link,  invalid emali address, password ,login button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is  not able to access login page </t>
+  </si>
+  <si>
+    <t>unsuccess fully login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter URL path, link,emali address,invalid  password ,login button </t>
+  </si>
+  <si>
+    <t>user is able to resistration process to access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong detais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter details </t>
+  </si>
+  <si>
+    <t>user eble to resistration process to access</t>
+  </si>
+  <si>
+    <t>user is  not able to resistration process to access</t>
+  </si>
+  <si>
+    <t>success fully resistration</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>unsuccess fully resistration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find job </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to serch job proces to access </t>
+  </si>
+  <si>
+    <t>search  find job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to serch job proces to access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is  not able to serch job proces to access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">success fully search job </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsuccess fully search job </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log out button </t>
+  </si>
+  <si>
+    <t>user is able to  access log out the process</t>
+  </si>
+  <si>
+    <t>click log out button</t>
+  </si>
+  <si>
+    <t>user eble to  access log out the process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success fully log out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all specializations </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to select specializations option</t>
+  </si>
+  <si>
+    <t>select specializations option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to select specializations option</t>
+  </si>
+  <si>
+    <t>success fully select</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is not able to select specializations option</t>
+  </si>
+  <si>
+    <t>other categrys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all ages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select ages option  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to access enter the location </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to  accessselect ages option  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to  access select ages option  </t>
+  </si>
+  <si>
+    <t>success fully  select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to access select qulification option  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualification levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select qualification levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to access select qulification option  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exprience levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to  access select exprience option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select exprience levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to  access select exprience option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary levels </t>
+  </si>
+  <si>
+    <t>user is able to access select salary option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select salary levels </t>
+  </si>
+  <si>
+    <t>user eble to access select salary option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to all information details are reset </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to all information details are reset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter all informatoin   reset filter </t>
+  </si>
+  <si>
+    <t>success fully  reset information</t>
+  </si>
+  <si>
+    <t>success fully reset information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search button </t>
+  </si>
+  <si>
+    <t>user is  able to access  search the process</t>
+  </si>
+  <si>
+    <t>1.select specializations option2.enter location3.select ages option4. select qualification levels 5.select exprience levels 6.select salary levels 7.search button click</t>
+  </si>
+  <si>
+    <t>success fully  search</t>
+  </si>
+  <si>
+    <t>user eble to access  search the process</t>
+  </si>
+  <si>
+    <t>unsuccess fully  search</t>
+  </si>
+  <si>
+    <t>user is able to access  search the process due to diffrent types search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add on site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to entel the site details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter URL path, link, emali address, password ,login button ,enter add on site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to entel the site details </t>
+  </si>
+  <si>
+    <t>success fully  enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to see employees details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user eble to see employees details </t>
+  </si>
+  <si>
+    <t>success fully view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user is able to  access contects  emloyeers</t>
+  </si>
+  <si>
+    <t>enter URL path, link, emali address, password ,login button ,enter add on site ,view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user eble to  access contects  emloyeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employers </t>
+  </si>
+  <si>
+    <t>user is  able to employers  access for  process</t>
+  </si>
+  <si>
+    <t>enter URL path, link, emali address, password ,login button ,enter add on site ,view,contect</t>
+  </si>
+  <si>
+    <t>user eble to employers  access for  process</t>
+  </si>
+  <si>
+    <t>user is able to employers  access for  process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view </t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log out button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reset filter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistration </t>
+  </si>
+  <si>
+    <t>update photo</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,28 +2514,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2172,7 +2667,7 @@
         <v>127</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>125</v>
@@ -2248,7 +2743,7 @@
         <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>125</v>
@@ -2388,7 +2883,7 @@
         <v>156</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>125</v>
@@ -2620,7 +3115,7 @@
         <v>127</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>125</v>
@@ -2696,7 +3191,7 @@
         <v>127</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>125</v>
@@ -3291,7 +3786,7 @@
         <v>127</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>125</v>
@@ -3367,7 +3862,7 @@
         <v>127</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>125</v>
@@ -3423,7 +3918,7 @@
         <v>245</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>246</v>
@@ -3455,7 +3950,7 @@
         <v>245</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>111</v>
@@ -3487,7 +3982,7 @@
         <v>253</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>255</v>
@@ -3519,7 +4014,7 @@
         <v>253</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>256</v>
@@ -3551,7 +4046,7 @@
         <v>253</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>257</v>
@@ -3935,6 +4430,1754 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" t="s">
+        <v>300</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J99" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" t="s">
+        <v>312</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" t="s">
+        <v>313</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" t="s">
+        <v>321</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" t="s">
+        <v>322</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" t="s">
+        <v>329</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" t="s">
+        <v>333</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" t="s">
+        <v>337</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E114" t="s">
+        <v>341</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" t="s">
+        <v>345</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E117" t="s">
+        <v>346</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B120" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E120" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" t="s">
+        <v>352</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E123" t="s">
+        <v>363</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E124" t="s">
+        <v>364</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" t="s">
+        <v>367</v>
+      </c>
+      <c r="C126" t="s">
+        <v>369</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" t="s">
+        <v>371</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H126" t="s">
+        <v>372</v>
+      </c>
+      <c r="I126" t="s">
+        <v>373</v>
+      </c>
+      <c r="J126" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>460</v>
+      </c>
+      <c r="C131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>460</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>462</v>
+      </c>
+      <c r="C135" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" t="s">
+        <v>384</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J136" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" t="s">
+        <v>394</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>392</v>
+      </c>
+      <c r="C142" t="s">
+        <v>393</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>399</v>
+      </c>
+      <c r="C144" t="s">
+        <v>400</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144" t="s">
+        <v>401</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" t="s">
+        <v>404</v>
+      </c>
+      <c r="C150" t="s">
+        <v>405</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" t="s">
+        <v>406</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" t="s">
+        <v>404</v>
+      </c>
+      <c r="C151" t="s">
+        <v>405</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" t="s">
+        <v>406</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" t="s">
+        <v>415</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E156" t="s">
+        <v>412</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" t="s">
+        <v>418</v>
+      </c>
+      <c r="C158" t="s">
+        <v>417</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158" t="s">
+        <v>419</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>421</v>
+      </c>
+      <c r="C160" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E160" t="s">
+        <v>423</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>425</v>
+      </c>
+      <c r="C162" t="s">
+        <v>426</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>461</v>
+      </c>
+      <c r="C164" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E164" t="s">
+        <v>431</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B166" t="s">
+        <v>434</v>
+      </c>
+      <c r="C166" t="s">
+        <v>435</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" t="s">
+        <v>441</v>
+      </c>
+      <c r="C178" t="s">
+        <v>442</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" t="s">
+        <v>457</v>
+      </c>
+      <c r="C180" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B182" t="s">
+        <v>458</v>
+      </c>
+      <c r="C182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>452</v>
+      </c>
+      <c r="C184" t="s">
+        <v>453</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
